--- a/data/utils/trait_name_lookup.xlsx
+++ b/data/utils/trait_name_lookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jay\Documents\R\Projects\Jay_yield\data\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgille2\Documents\R\projects\Jay_yield\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73A57361-5696-4304-9514-FD9980D71CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF800DF8-4AC3-4666-A6F2-D59E0D159870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1610" yWindow="8820" windowWidth="14620" windowHeight="9450" xr2:uid="{F874549B-2F4E-41DC-AF60-06FD0551DD83}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F874549B-2F4E-41DC-AF60-06FD0551DD83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>md</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>trait_name</t>
+  </si>
+  <si>
+    <t>protein_meal</t>
+  </si>
+  <si>
+    <t>Protein Meal</t>
   </si>
 </sst>
 </file>
@@ -446,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF6AF7-5DAD-49B4-BDF1-B70E11EDF326}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -462,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -478,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -486,7 +492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -494,7 +500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -502,7 +508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -510,7 +516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -518,7 +524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -526,12 +532,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/utils/trait_name_lookup.xlsx
+++ b/data/utils/trait_name_lookup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhgille2\Documents\R\projects\Jay_yield\data\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF800DF8-4AC3-4666-A6F2-D59E0D159870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF83CBC1-D1A9-4941-82EB-74AD1BD591E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F874549B-2F4E-41DC-AF60-06FD0551DD83}"/>
+    <workbookView xWindow="-25290" yWindow="600" windowWidth="14310" windowHeight="15600" xr2:uid="{F874549B-2F4E-41DC-AF60-06FD0551DD83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>Yield (bu/ac)</t>
   </si>
   <si>
-    <t>Seeed Weight (grams)</t>
-  </si>
-  <si>
     <t>Seed Quality</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Protein Meal</t>
+  </si>
+  <si>
+    <t>Seed Weight (grams)</t>
   </si>
 </sst>
 </file>
@@ -455,14 +455,14 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
@@ -521,7 +521,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -537,15 +537,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
